--- a/data/processed/basaltic_glasses/calczaf_files/Edi09/calczaf_outputs.xlsx
+++ b/data/processed/basaltic_glasses/calczaf_files/Edi09/calczaf_outputs.xlsx
@@ -3815,19 +3815,19 @@
         <v>0.447</v>
       </c>
       <c r="C10">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="D10">
+        <v>0.444</v>
+      </c>
+      <c r="E10">
+        <v>0.444</v>
+      </c>
+      <c r="F10">
         <v>0.445</v>
       </c>
-      <c r="E10">
-        <v>0.445</v>
-      </c>
-      <c r="F10">
-        <v>0.446</v>
-      </c>
       <c r="G10">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="H10">
         <v>0.445</v>
@@ -3836,31 +3836,31 @@
         <v>0.444</v>
       </c>
       <c r="J10">
+        <v>0.442</v>
+      </c>
+      <c r="K10">
+        <v>0.444</v>
+      </c>
+      <c r="L10">
+        <v>0.444</v>
+      </c>
+      <c r="M10">
+        <v>0.449</v>
+      </c>
+      <c r="N10">
         <v>0.443</v>
       </c>
-      <c r="K10">
-        <v>0.445</v>
-      </c>
-      <c r="L10">
-        <v>0.445</v>
-      </c>
-      <c r="M10">
-        <v>0.45</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.444</v>
-      </c>
-      <c r="O10">
-        <v>0.445</v>
       </c>
       <c r="P10">
         <v>0.002</v>
       </c>
       <c r="Q10">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="R10">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3868,55 +3868,55 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.064</v>
+        <v>0.066</v>
       </c>
       <c r="C11">
-        <v>0.096</v>
+        <v>0.106</v>
       </c>
       <c r="D11">
-        <v>0.081</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E11">
-        <v>0.083</v>
+        <v>0.089</v>
       </c>
       <c r="F11">
-        <v>0.075</v>
+        <v>0.082</v>
       </c>
       <c r="G11">
-        <v>0.102</v>
+        <v>0.109</v>
       </c>
       <c r="H11">
-        <v>0.079</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I11">
+        <v>0.092</v>
+      </c>
+      <c r="J11">
+        <v>0.109</v>
+      </c>
+      <c r="K11">
         <v>0.08599999999999999</v>
       </c>
-      <c r="J11">
-        <v>0.1</v>
-      </c>
-      <c r="K11">
-        <v>0.08</v>
-      </c>
       <c r="L11">
-        <v>0.081</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="N11">
-        <v>0.09</v>
+        <v>0.099</v>
       </c>
       <c r="O11">
-        <v>0.081</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="P11">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="Q11">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="R11">
-        <v>0.102</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4148,55 +4148,55 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>46.461</v>
+        <v>46.459</v>
       </c>
       <c r="C16">
-        <v>46.433</v>
+        <v>46.424</v>
       </c>
       <c r="D16">
-        <v>46.446</v>
+        <v>46.44</v>
       </c>
       <c r="E16">
+        <v>46.439</v>
+      </c>
+      <c r="F16">
         <v>46.445</v>
       </c>
-      <c r="F16">
-        <v>46.451</v>
-      </c>
       <c r="G16">
-        <v>46.428</v>
+        <v>46.422</v>
       </c>
       <c r="H16">
-        <v>46.448</v>
+        <v>46.443</v>
       </c>
       <c r="I16">
+        <v>46.437</v>
+      </c>
+      <c r="J16">
+        <v>46.421</v>
+      </c>
+      <c r="K16">
         <v>46.442</v>
       </c>
-      <c r="J16">
-        <v>46.429</v>
-      </c>
-      <c r="K16">
-        <v>46.447</v>
-      </c>
       <c r="L16">
-        <v>46.446</v>
+        <v>46.441</v>
       </c>
       <c r="M16">
-        <v>46.483</v>
+        <v>46.478</v>
       </c>
       <c r="N16">
-        <v>46.438</v>
+        <v>46.43</v>
       </c>
       <c r="O16">
-        <v>46.446</v>
+        <v>46.44</v>
       </c>
       <c r="P16">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="Q16">
-        <v>46.428</v>
+        <v>46.421</v>
       </c>
       <c r="R16">
-        <v>46.483</v>
+        <v>46.478</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -4764,55 +4764,55 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>3.994</v>
+        <v>3.991</v>
       </c>
       <c r="C28">
-        <v>3.961</v>
+        <v>3.952</v>
       </c>
       <c r="D28">
-        <v>3.976</v>
+        <v>3.97</v>
       </c>
       <c r="E28">
+        <v>3.968</v>
+      </c>
+      <c r="F28">
         <v>3.975</v>
       </c>
-      <c r="F28">
-        <v>3.982</v>
-      </c>
       <c r="G28">
-        <v>3.956</v>
+        <v>3.949</v>
       </c>
       <c r="H28">
-        <v>3.978</v>
+        <v>3.973</v>
       </c>
       <c r="I28">
+        <v>3.966</v>
+      </c>
+      <c r="J28">
+        <v>3.948</v>
+      </c>
+      <c r="K28">
         <v>3.972</v>
       </c>
-      <c r="J28">
-        <v>3.957</v>
-      </c>
-      <c r="K28">
-        <v>3.977</v>
-      </c>
       <c r="L28">
-        <v>3.976</v>
+        <v>3.97</v>
       </c>
       <c r="M28">
-        <v>4.017</v>
+        <v>4.012</v>
       </c>
       <c r="N28">
-        <v>3.968</v>
+        <v>3.959</v>
       </c>
       <c r="O28">
-        <v>3.976</v>
+        <v>3.97</v>
       </c>
       <c r="P28">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="Q28">
-        <v>3.956</v>
+        <v>3.948</v>
       </c>
       <c r="R28">
-        <v>4.017</v>
+        <v>4.012</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4820,55 +4820,55 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>0.064</v>
+        <v>0.066</v>
       </c>
       <c r="C29">
-        <v>0.096</v>
+        <v>0.106</v>
       </c>
       <c r="D29">
-        <v>0.081</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E29">
-        <v>0.083</v>
+        <v>0.089</v>
       </c>
       <c r="F29">
-        <v>0.075</v>
+        <v>0.082</v>
       </c>
       <c r="G29">
-        <v>0.102</v>
+        <v>0.109</v>
       </c>
       <c r="H29">
-        <v>0.079</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I29">
+        <v>0.092</v>
+      </c>
+      <c r="J29">
+        <v>0.109</v>
+      </c>
+      <c r="K29">
         <v>0.08599999999999999</v>
       </c>
-      <c r="J29">
-        <v>0.1</v>
-      </c>
-      <c r="K29">
-        <v>0.08</v>
-      </c>
       <c r="L29">
-        <v>0.081</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="N29">
-        <v>0.09</v>
+        <v>0.099</v>
       </c>
       <c r="O29">
-        <v>0.081</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="P29">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="Q29">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="R29">
-        <v>0.102</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -5212,55 +5212,55 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>15.561</v>
+        <v>15.562</v>
       </c>
       <c r="C37">
-        <v>15.57</v>
+        <v>15.573</v>
       </c>
       <c r="D37">
+        <v>15.568</v>
+      </c>
+      <c r="E37">
+        <v>15.568</v>
+      </c>
+      <c r="F37">
         <v>15.566</v>
       </c>
-      <c r="E37">
-        <v>15.566</v>
-      </c>
-      <c r="F37">
-        <v>15.564</v>
-      </c>
       <c r="G37">
-        <v>15.572</v>
+        <v>15.574</v>
       </c>
       <c r="H37">
-        <v>15.565</v>
+        <v>15.567</v>
       </c>
       <c r="I37">
+        <v>15.569</v>
+      </c>
+      <c r="J37">
+        <v>15.574</v>
+      </c>
+      <c r="K37">
         <v>15.567</v>
       </c>
-      <c r="J37">
-        <v>15.572</v>
-      </c>
-      <c r="K37">
-        <v>15.566</v>
-      </c>
       <c r="L37">
-        <v>15.566</v>
+        <v>15.568</v>
       </c>
       <c r="M37">
-        <v>15.554</v>
+        <v>15.556</v>
       </c>
       <c r="N37">
-        <v>15.569</v>
+        <v>15.571</v>
       </c>
       <c r="O37">
-        <v>15.566</v>
+        <v>15.568</v>
       </c>
       <c r="P37">
         <v>0.005</v>
       </c>
       <c r="Q37">
-        <v>15.554</v>
+        <v>15.556</v>
       </c>
       <c r="R37">
-        <v>15.572</v>
+        <v>15.574</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -5271,28 +5271,28 @@
         <v>5.764</v>
       </c>
       <c r="C38">
-        <v>5.767</v>
+        <v>5.768</v>
       </c>
       <c r="D38">
         <v>5.766</v>
       </c>
       <c r="E38">
+        <v>5.767</v>
+      </c>
+      <c r="F38">
         <v>5.766</v>
       </c>
-      <c r="F38">
-        <v>5.765</v>
-      </c>
       <c r="G38">
-        <v>5.768</v>
+        <v>5.769</v>
       </c>
       <c r="H38">
-        <v>5.765</v>
+        <v>5.766</v>
       </c>
       <c r="I38">
-        <v>5.766</v>
+        <v>5.767</v>
       </c>
       <c r="J38">
-        <v>5.768</v>
+        <v>5.769</v>
       </c>
       <c r="K38">
         <v>5.766</v>
@@ -5301,10 +5301,10 @@
         <v>5.766</v>
       </c>
       <c r="M38">
-        <v>5.761</v>
+        <v>5.762</v>
       </c>
       <c r="N38">
-        <v>5.767</v>
+        <v>5.768</v>
       </c>
       <c r="O38">
         <v>5.766</v>
@@ -5313,10 +5313,10 @@
         <v>0.002</v>
       </c>
       <c r="Q38">
-        <v>5.761</v>
+        <v>5.762</v>
       </c>
       <c r="R38">
-        <v>5.768</v>
+        <v>5.769</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -5324,55 +5324,55 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>4.978</v>
+        <v>4.979</v>
       </c>
       <c r="C39">
+        <v>4.982</v>
+      </c>
+      <c r="D39">
         <v>4.981</v>
       </c>
-      <c r="D39">
+      <c r="E39">
+        <v>4.981</v>
+      </c>
+      <c r="F39">
         <v>4.98</v>
       </c>
-      <c r="E39">
-        <v>4.98</v>
-      </c>
-      <c r="F39">
-        <v>4.979</v>
-      </c>
       <c r="G39">
-        <v>4.982</v>
+        <v>4.983</v>
       </c>
       <c r="H39">
         <v>4.98</v>
       </c>
       <c r="I39">
-        <v>4.98</v>
+        <v>4.981</v>
       </c>
       <c r="J39">
-        <v>4.982</v>
+        <v>4.983</v>
       </c>
       <c r="K39">
         <v>4.98</v>
       </c>
       <c r="L39">
-        <v>4.98</v>
+        <v>4.981</v>
       </c>
       <c r="M39">
-        <v>4.976</v>
+        <v>4.977</v>
       </c>
       <c r="N39">
+        <v>4.982</v>
+      </c>
+      <c r="O39">
         <v>4.981</v>
-      </c>
-      <c r="O39">
-        <v>4.98</v>
       </c>
       <c r="P39">
         <v>0.002</v>
       </c>
       <c r="Q39">
-        <v>4.976</v>
+        <v>4.977</v>
       </c>
       <c r="R39">
-        <v>4.982</v>
+        <v>4.983</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -5383,13 +5383,13 @@
         <v>4.207</v>
       </c>
       <c r="C40">
-        <v>4.209</v>
+        <v>4.21</v>
       </c>
       <c r="D40">
         <v>4.208</v>
       </c>
       <c r="E40">
-        <v>4.208</v>
+        <v>4.209</v>
       </c>
       <c r="F40">
         <v>4.208</v>
@@ -5401,7 +5401,7 @@
         <v>4.208</v>
       </c>
       <c r="I40">
-        <v>4.208</v>
+        <v>4.209</v>
       </c>
       <c r="J40">
         <v>4.21</v>
@@ -5439,7 +5439,7 @@
         <v>2.063</v>
       </c>
       <c r="C41">
-        <v>2.064</v>
+        <v>2.065</v>
       </c>
       <c r="D41">
         <v>2.064</v>
@@ -5451,7 +5451,7 @@
         <v>2.064</v>
       </c>
       <c r="G41">
-        <v>2.064</v>
+        <v>2.065</v>
       </c>
       <c r="H41">
         <v>2.064</v>
@@ -5460,7 +5460,7 @@
         <v>2.064</v>
       </c>
       <c r="J41">
-        <v>2.064</v>
+        <v>2.065</v>
       </c>
       <c r="K41">
         <v>2.064</v>
@@ -5484,7 +5484,7 @@
         <v>2.062</v>
       </c>
       <c r="R41">
-        <v>2.064</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -5607,7 +5607,7 @@
         <v>1.086</v>
       </c>
       <c r="C44">
-        <v>1.086</v>
+        <v>1.087</v>
       </c>
       <c r="D44">
         <v>1.086</v>
@@ -5637,10 +5637,10 @@
         <v>1.086</v>
       </c>
       <c r="M44">
-        <v>1.085</v>
+        <v>1.086</v>
       </c>
       <c r="N44">
-        <v>1.086</v>
+        <v>1.087</v>
       </c>
       <c r="O44">
         <v>1.086</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1.085</v>
+        <v>1.086</v>
       </c>
       <c r="R44">
         <v>1.087</v>
@@ -5660,55 +5660,55 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>8.742000000000001</v>
+        <v>8.737</v>
       </c>
       <c r="C45">
-        <v>8.676</v>
+        <v>8.657</v>
       </c>
       <c r="D45">
-        <v>8.706</v>
+        <v>8.694000000000001</v>
       </c>
       <c r="E45">
+        <v>8.69</v>
+      </c>
+      <c r="F45">
         <v>8.704000000000001</v>
       </c>
-      <c r="F45">
-        <v>8.718999999999999</v>
-      </c>
       <c r="G45">
-        <v>8.664999999999999</v>
+        <v>8.651</v>
       </c>
       <c r="H45">
-        <v>8.711</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I45">
+        <v>8.685</v>
+      </c>
+      <c r="J45">
+        <v>8.65</v>
+      </c>
+      <c r="K45">
         <v>8.696999999999999</v>
       </c>
-      <c r="J45">
-        <v>8.667999999999999</v>
-      </c>
-      <c r="K45">
-        <v>8.708</v>
-      </c>
       <c r="L45">
-        <v>8.706</v>
+        <v>8.694000000000001</v>
       </c>
       <c r="M45">
-        <v>8.789999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="N45">
-        <v>8.689</v>
+        <v>8.670999999999999</v>
       </c>
       <c r="O45">
-        <v>8.706</v>
+        <v>8.693</v>
       </c>
       <c r="P45">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="Q45">
-        <v>8.664999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="R45">
-        <v>8.789999999999999</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -5716,55 +5716,55 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>0.09</v>
+        <v>0.093</v>
       </c>
       <c r="C46">
-        <v>0.135</v>
+        <v>0.149</v>
       </c>
       <c r="D46">
-        <v>0.114</v>
+        <v>0.123</v>
       </c>
       <c r="E46">
+        <v>0.125</v>
+      </c>
+      <c r="F46">
         <v>0.116</v>
       </c>
-      <c r="F46">
-        <v>0.106</v>
-      </c>
       <c r="G46">
-        <v>0.143</v>
+        <v>0.153</v>
       </c>
       <c r="H46">
-        <v>0.111</v>
+        <v>0.119</v>
       </c>
       <c r="I46">
-        <v>0.12</v>
+        <v>0.129</v>
       </c>
       <c r="J46">
-        <v>0.141</v>
+        <v>0.153</v>
       </c>
       <c r="K46">
-        <v>0.113</v>
+        <v>0.121</v>
       </c>
       <c r="L46">
-        <v>0.114</v>
+        <v>0.123</v>
       </c>
       <c r="M46">
-        <v>0.056</v>
+        <v>0.063</v>
       </c>
       <c r="N46">
-        <v>0.126</v>
+        <v>0.139</v>
       </c>
       <c r="O46">
-        <v>0.114</v>
+        <v>0.124</v>
       </c>
       <c r="P46">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="Q46">
-        <v>0.056</v>
+        <v>0.063</v>
       </c>
       <c r="R46">
-        <v>0.143</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -6002,10 +6002,10 @@
         <v>57.259</v>
       </c>
       <c r="D51">
-        <v>57.26</v>
+        <v>57.259</v>
       </c>
       <c r="E51">
-        <v>57.26</v>
+        <v>57.259</v>
       </c>
       <c r="F51">
         <v>57.26</v>
@@ -6014,7 +6014,7 @@
         <v>57.259</v>
       </c>
       <c r="H51">
-        <v>57.26</v>
+        <v>57.259</v>
       </c>
       <c r="I51">
         <v>57.259</v>
@@ -6023,10 +6023,10 @@
         <v>57.259</v>
       </c>
       <c r="K51">
-        <v>57.26</v>
+        <v>57.259</v>
       </c>
       <c r="L51">
-        <v>57.26</v>
+        <v>57.259</v>
       </c>
       <c r="M51">
         <v>57.26</v>
@@ -6035,7 +6035,7 @@
         <v>57.259</v>
       </c>
       <c r="O51">
-        <v>57.26</v>
+        <v>57.259</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -6631,19 +6631,19 @@
         <v>0.445</v>
       </c>
       <c r="C10">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="D10">
+        <v>0.442</v>
+      </c>
+      <c r="E10">
+        <v>0.442</v>
+      </c>
+      <c r="F10">
         <v>0.443</v>
       </c>
-      <c r="E10">
-        <v>0.443</v>
-      </c>
-      <c r="F10">
-        <v>0.444</v>
-      </c>
       <c r="G10">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="H10">
         <v>0.443</v>
@@ -6652,31 +6652,31 @@
         <v>0.442</v>
       </c>
       <c r="J10">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="K10">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L10">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="M10">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="N10">
+        <v>0.441</v>
+      </c>
+      <c r="O10">
         <v>0.442</v>
-      </c>
-      <c r="O10">
-        <v>0.443</v>
       </c>
       <c r="P10">
         <v>0.002</v>
       </c>
       <c r="Q10">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="R10">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -6684,55 +6684,55 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="C11">
-        <v>0.116</v>
+        <v>0.127</v>
       </c>
       <c r="D11">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
       <c r="E11">
+        <v>0.107</v>
+      </c>
+      <c r="F11">
         <v>0.099</v>
       </c>
-      <c r="F11">
-        <v>0.09</v>
-      </c>
       <c r="G11">
-        <v>0.123</v>
+        <v>0.131</v>
       </c>
       <c r="H11">
-        <v>0.095</v>
+        <v>0.102</v>
       </c>
       <c r="I11">
+        <v>0.11</v>
+      </c>
+      <c r="J11">
+        <v>0.131</v>
+      </c>
+      <c r="K11">
         <v>0.103</v>
       </c>
-      <c r="J11">
-        <v>0.121</v>
-      </c>
-      <c r="K11">
-        <v>0.097</v>
-      </c>
       <c r="L11">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
       <c r="M11">
-        <v>0.048</v>
+        <v>0.054</v>
       </c>
       <c r="N11">
-        <v>0.108</v>
+        <v>0.119</v>
       </c>
       <c r="O11">
-        <v>0.098</v>
+        <v>0.106</v>
       </c>
       <c r="P11">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="Q11">
-        <v>0.048</v>
+        <v>0.054</v>
       </c>
       <c r="R11">
-        <v>0.123</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -6964,55 +6964,55 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>46.45</v>
+        <v>46.447</v>
       </c>
       <c r="C16">
-        <v>46.415</v>
+        <v>46.405</v>
       </c>
       <c r="D16">
-        <v>46.431</v>
+        <v>46.425</v>
       </c>
       <c r="E16">
+        <v>46.423</v>
+      </c>
+      <c r="F16">
         <v>46.43</v>
       </c>
-      <c r="F16">
-        <v>46.438</v>
-      </c>
       <c r="G16">
-        <v>46.409</v>
+        <v>46.402</v>
       </c>
       <c r="H16">
-        <v>46.434</v>
+        <v>46.428</v>
       </c>
       <c r="I16">
+        <v>46.42</v>
+      </c>
+      <c r="J16">
+        <v>46.402</v>
+      </c>
+      <c r="K16">
         <v>46.426</v>
       </c>
-      <c r="J16">
-        <v>46.411</v>
-      </c>
-      <c r="K16">
-        <v>46.432</v>
-      </c>
       <c r="L16">
-        <v>46.431</v>
+        <v>46.425</v>
       </c>
       <c r="M16">
-        <v>46.475</v>
+        <v>46.47</v>
       </c>
       <c r="N16">
-        <v>46.422</v>
+        <v>46.413</v>
       </c>
       <c r="O16">
-        <v>46.431</v>
+        <v>46.424</v>
       </c>
       <c r="P16">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="Q16">
-        <v>46.409</v>
+        <v>46.402</v>
       </c>
       <c r="R16">
-        <v>46.475</v>
+        <v>46.47</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -7580,55 +7580,55 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>3.98</v>
+        <v>3.977</v>
       </c>
       <c r="C28">
-        <v>3.941</v>
+        <v>3.93</v>
       </c>
       <c r="D28">
-        <v>3.959</v>
+        <v>3.952</v>
       </c>
       <c r="E28">
+        <v>3.95</v>
+      </c>
+      <c r="F28">
         <v>3.958</v>
       </c>
-      <c r="F28">
-        <v>3.967</v>
-      </c>
       <c r="G28">
-        <v>3.935</v>
+        <v>3.926</v>
       </c>
       <c r="H28">
-        <v>3.962</v>
+        <v>3.955</v>
       </c>
       <c r="I28">
+        <v>3.947</v>
+      </c>
+      <c r="J28">
+        <v>3.926</v>
+      </c>
+      <c r="K28">
         <v>3.954</v>
       </c>
-      <c r="J28">
-        <v>3.936</v>
-      </c>
-      <c r="K28">
-        <v>3.96</v>
-      </c>
       <c r="L28">
-        <v>3.959</v>
+        <v>3.952</v>
       </c>
       <c r="M28">
-        <v>4.009</v>
+        <v>4.003</v>
       </c>
       <c r="N28">
-        <v>3.949</v>
+        <v>3.939</v>
       </c>
       <c r="O28">
-        <v>3.959</v>
+        <v>3.952</v>
       </c>
       <c r="P28">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="Q28">
-        <v>3.935</v>
+        <v>3.926</v>
       </c>
       <c r="R28">
-        <v>4.009</v>
+        <v>4.003</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -7636,55 +7636,55 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="C29">
-        <v>0.116</v>
+        <v>0.127</v>
       </c>
       <c r="D29">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
       <c r="E29">
+        <v>0.107</v>
+      </c>
+      <c r="F29">
         <v>0.099</v>
       </c>
-      <c r="F29">
-        <v>0.09</v>
-      </c>
       <c r="G29">
-        <v>0.123</v>
+        <v>0.131</v>
       </c>
       <c r="H29">
-        <v>0.095</v>
+        <v>0.102</v>
       </c>
       <c r="I29">
+        <v>0.11</v>
+      </c>
+      <c r="J29">
+        <v>0.131</v>
+      </c>
+      <c r="K29">
         <v>0.103</v>
       </c>
-      <c r="J29">
-        <v>0.121</v>
-      </c>
-      <c r="K29">
-        <v>0.097</v>
-      </c>
       <c r="L29">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
       <c r="M29">
-        <v>0.048</v>
+        <v>0.054</v>
       </c>
       <c r="N29">
-        <v>0.108</v>
+        <v>0.119</v>
       </c>
       <c r="O29">
-        <v>0.098</v>
+        <v>0.106</v>
       </c>
       <c r="P29">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="Q29">
-        <v>0.048</v>
+        <v>0.054</v>
       </c>
       <c r="R29">
-        <v>0.123</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -8028,55 +8028,55 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>15.565</v>
+        <v>15.566</v>
       </c>
       <c r="C37">
-        <v>15.576</v>
+        <v>15.58</v>
       </c>
       <c r="D37">
+        <v>15.573</v>
+      </c>
+      <c r="E37">
+        <v>15.574</v>
+      </c>
+      <c r="F37">
         <v>15.571</v>
       </c>
-      <c r="E37">
-        <v>15.571</v>
-      </c>
-      <c r="F37">
-        <v>15.569</v>
-      </c>
       <c r="G37">
-        <v>15.578</v>
+        <v>15.581</v>
       </c>
       <c r="H37">
-        <v>15.57</v>
+        <v>15.572</v>
       </c>
       <c r="I37">
+        <v>15.575</v>
+      </c>
+      <c r="J37">
+        <v>15.581</v>
+      </c>
+      <c r="K37">
         <v>15.572</v>
       </c>
-      <c r="J37">
-        <v>15.578</v>
-      </c>
-      <c r="K37">
-        <v>15.571</v>
-      </c>
       <c r="L37">
-        <v>15.571</v>
+        <v>15.573</v>
       </c>
       <c r="M37">
-        <v>15.556</v>
+        <v>15.558</v>
       </c>
       <c r="N37">
-        <v>15.574</v>
+        <v>15.577</v>
       </c>
       <c r="O37">
-        <v>15.571</v>
+        <v>15.573</v>
       </c>
       <c r="P37">
         <v>0.006</v>
       </c>
       <c r="Q37">
-        <v>15.556</v>
+        <v>15.558</v>
       </c>
       <c r="R37">
-        <v>15.578</v>
+        <v>15.581</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -8084,31 +8084,31 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>5.765</v>
+        <v>5.766</v>
       </c>
       <c r="C38">
-        <v>5.77</v>
+        <v>5.771</v>
       </c>
       <c r="D38">
         <v>5.768</v>
       </c>
       <c r="E38">
+        <v>5.769</v>
+      </c>
+      <c r="F38">
         <v>5.768</v>
       </c>
-      <c r="F38">
-        <v>5.767</v>
-      </c>
       <c r="G38">
-        <v>5.77</v>
+        <v>5.771</v>
       </c>
       <c r="H38">
-        <v>5.767</v>
+        <v>5.768</v>
       </c>
       <c r="I38">
-        <v>5.768</v>
+        <v>5.769</v>
       </c>
       <c r="J38">
-        <v>5.77</v>
+        <v>5.771</v>
       </c>
       <c r="K38">
         <v>5.768</v>
@@ -8117,10 +8117,10 @@
         <v>5.768</v>
       </c>
       <c r="M38">
-        <v>5.762</v>
+        <v>5.763</v>
       </c>
       <c r="N38">
-        <v>5.769</v>
+        <v>5.77</v>
       </c>
       <c r="O38">
         <v>5.768</v>
@@ -8129,10 +8129,10 @@
         <v>0.002</v>
       </c>
       <c r="Q38">
-        <v>5.762</v>
+        <v>5.763</v>
       </c>
       <c r="R38">
-        <v>5.77</v>
+        <v>5.771</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8143,7 +8143,7 @@
         <v>4.98</v>
       </c>
       <c r="C39">
-        <v>4.983</v>
+        <v>4.984</v>
       </c>
       <c r="D39">
         <v>4.982</v>
@@ -8152,19 +8152,19 @@
         <v>4.982</v>
       </c>
       <c r="F39">
-        <v>4.981</v>
+        <v>4.982</v>
       </c>
       <c r="G39">
-        <v>4.984</v>
+        <v>4.985</v>
       </c>
       <c r="H39">
-        <v>4.981</v>
+        <v>4.982</v>
       </c>
       <c r="I39">
-        <v>4.982</v>
+        <v>4.983</v>
       </c>
       <c r="J39">
-        <v>4.984</v>
+        <v>4.985</v>
       </c>
       <c r="K39">
         <v>4.982</v>
@@ -8173,10 +8173,10 @@
         <v>4.982</v>
       </c>
       <c r="M39">
-        <v>4.977</v>
+        <v>4.978</v>
       </c>
       <c r="N39">
-        <v>4.982</v>
+        <v>4.983</v>
       </c>
       <c r="O39">
         <v>4.982</v>
@@ -8185,10 +8185,10 @@
         <v>0.002</v>
       </c>
       <c r="Q39">
-        <v>4.977</v>
+        <v>4.978</v>
       </c>
       <c r="R39">
-        <v>4.984</v>
+        <v>4.985</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -8199,52 +8199,52 @@
         <v>4.208</v>
       </c>
       <c r="C40">
-        <v>4.211</v>
+        <v>4.212</v>
       </c>
       <c r="D40">
-        <v>4.209</v>
+        <v>4.21</v>
       </c>
       <c r="E40">
-        <v>4.209</v>
+        <v>4.21</v>
       </c>
       <c r="F40">
         <v>4.209</v>
       </c>
       <c r="G40">
-        <v>4.211</v>
+        <v>4.212</v>
       </c>
       <c r="H40">
-        <v>4.209</v>
+        <v>4.21</v>
       </c>
       <c r="I40">
         <v>4.21</v>
       </c>
       <c r="J40">
+        <v>4.212</v>
+      </c>
+      <c r="K40">
+        <v>4.21</v>
+      </c>
+      <c r="L40">
+        <v>4.21</v>
+      </c>
+      <c r="M40">
+        <v>4.206</v>
+      </c>
+      <c r="N40">
         <v>4.211</v>
       </c>
-      <c r="K40">
-        <v>4.209</v>
-      </c>
-      <c r="L40">
-        <v>4.209</v>
-      </c>
-      <c r="M40">
-        <v>4.205</v>
-      </c>
-      <c r="N40">
+      <c r="O40">
         <v>4.21</v>
-      </c>
-      <c r="O40">
-        <v>4.209</v>
       </c>
       <c r="P40">
         <v>0.002</v>
       </c>
       <c r="Q40">
-        <v>4.205</v>
+        <v>4.206</v>
       </c>
       <c r="R40">
-        <v>4.211</v>
+        <v>4.212</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -8255,52 +8255,52 @@
         <v>2.064</v>
       </c>
       <c r="C41">
+        <v>2.066</v>
+      </c>
+      <c r="D41">
         <v>2.065</v>
       </c>
-      <c r="D41">
-        <v>2.064</v>
-      </c>
       <c r="E41">
-        <v>2.064</v>
+        <v>2.065</v>
       </c>
       <c r="F41">
         <v>2.064</v>
       </c>
       <c r="G41">
+        <v>2.066</v>
+      </c>
+      <c r="H41">
         <v>2.065</v>
-      </c>
-      <c r="H41">
-        <v>2.064</v>
       </c>
       <c r="I41">
         <v>2.065</v>
       </c>
       <c r="J41">
+        <v>2.066</v>
+      </c>
+      <c r="K41">
         <v>2.065</v>
       </c>
-      <c r="K41">
-        <v>2.064</v>
-      </c>
       <c r="L41">
-        <v>2.064</v>
+        <v>2.065</v>
       </c>
       <c r="M41">
-        <v>2.062</v>
+        <v>2.063</v>
       </c>
       <c r="N41">
         <v>2.065</v>
       </c>
       <c r="O41">
-        <v>2.064</v>
+        <v>2.065</v>
       </c>
       <c r="P41">
         <v>0.001</v>
       </c>
       <c r="Q41">
-        <v>2.062</v>
+        <v>2.063</v>
       </c>
       <c r="R41">
-        <v>2.065</v>
+        <v>2.066</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -8432,13 +8432,13 @@
         <v>1.087</v>
       </c>
       <c r="F44">
-        <v>1.086</v>
+        <v>1.087</v>
       </c>
       <c r="G44">
         <v>1.087</v>
       </c>
       <c r="H44">
-        <v>1.086</v>
+        <v>1.087</v>
       </c>
       <c r="I44">
         <v>1.087</v>
@@ -8447,7 +8447,7 @@
         <v>1.087</v>
       </c>
       <c r="K44">
-        <v>1.086</v>
+        <v>1.087</v>
       </c>
       <c r="L44">
         <v>1.087</v>
@@ -8476,55 +8476,55 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>8.715</v>
+        <v>8.709</v>
       </c>
       <c r="C45">
-        <v>8.635999999999999</v>
+        <v>8.613</v>
       </c>
       <c r="D45">
-        <v>8.673</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="E45">
-        <v>8.669</v>
+        <v>8.654</v>
       </c>
       <c r="F45">
-        <v>8.688000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="G45">
-        <v>8.622</v>
+        <v>8.606</v>
       </c>
       <c r="H45">
-        <v>8.678000000000001</v>
+        <v>8.664</v>
       </c>
       <c r="I45">
+        <v>8.647</v>
+      </c>
+      <c r="J45">
+        <v>8.605</v>
+      </c>
+      <c r="K45">
         <v>8.662000000000001</v>
       </c>
-      <c r="J45">
-        <v>8.625999999999999</v>
-      </c>
-      <c r="K45">
-        <v>8.675000000000001</v>
-      </c>
       <c r="L45">
-        <v>8.673</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="M45">
-        <v>8.773</v>
+        <v>8.760999999999999</v>
       </c>
       <c r="N45">
-        <v>8.651999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="O45">
-        <v>8.672000000000001</v>
+        <v>8.657</v>
       </c>
       <c r="P45">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="Q45">
-        <v>8.622</v>
+        <v>8.605</v>
       </c>
       <c r="R45">
-        <v>8.773</v>
+        <v>8.760999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -8532,55 +8532,55 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>0.108</v>
+        <v>0.112</v>
       </c>
       <c r="C46">
-        <v>0.163</v>
+        <v>0.18</v>
       </c>
       <c r="D46">
-        <v>0.138</v>
+        <v>0.148</v>
       </c>
       <c r="E46">
+        <v>0.151</v>
+      </c>
+      <c r="F46">
         <v>0.14</v>
       </c>
-      <c r="F46">
-        <v>0.127</v>
-      </c>
       <c r="G46">
-        <v>0.173</v>
+        <v>0.184</v>
       </c>
       <c r="H46">
-        <v>0.134</v>
+        <v>0.144</v>
       </c>
       <c r="I46">
+        <v>0.156</v>
+      </c>
+      <c r="J46">
+        <v>0.185</v>
+      </c>
+      <c r="K46">
         <v>0.145</v>
       </c>
-      <c r="J46">
-        <v>0.17</v>
-      </c>
-      <c r="K46">
-        <v>0.136</v>
-      </c>
       <c r="L46">
-        <v>0.138</v>
+        <v>0.148</v>
       </c>
       <c r="M46">
-        <v>0.068</v>
+        <v>0.076</v>
       </c>
       <c r="N46">
-        <v>0.152</v>
+        <v>0.167</v>
       </c>
       <c r="O46">
-        <v>0.138</v>
+        <v>0.149</v>
       </c>
       <c r="P46">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="Q46">
-        <v>0.068</v>
+        <v>0.076</v>
       </c>
       <c r="R46">
-        <v>0.173</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="47" spans="1:18">
